--- a/2.- FX_Risk_II.xlsx
+++ b/2.- FX_Risk_II.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B177F0-9DDE-1E47-AC3A-DE1C48EB77C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4BF5F-8F2F-6C45-BF51-2E6026E845D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="29400" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -621,11 +621,11 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -634,7 +634,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,12 +684,7 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1148,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A15:N1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46104,7 +46099,7 @@
         <v>3.506304942758387E-3</v>
       </c>
       <c r="F1300" s="6">
-        <f>C1300*1500000</f>
+        <f t="shared" ref="F1300:F1339" si="121">C1300*1500000</f>
         <v>30897253.990173344</v>
       </c>
       <c r="G1300" s="8">
@@ -46112,7 +46107,7 @@
         <v>-2.6307142188232158E-3</v>
       </c>
       <c r="H1300" s="7">
-        <f>D1300+F1300</f>
+        <f t="shared" ref="H1300:H1339" si="122">D1300+F1300</f>
         <v>83100375.938415542</v>
       </c>
       <c r="I1300" s="8">
@@ -46135,23 +46130,23 @@
         <v>51816719.055175774</v>
       </c>
       <c r="E1301" s="8">
-        <f t="shared" ref="E1301:E1339" si="121">D1301/D1300-1</f>
+        <f t="shared" ref="E1301:E1339" si="123">D1301/D1300-1</f>
         <v>-7.4019115839379923E-3</v>
       </c>
       <c r="F1301" s="6">
-        <f>C1301*1500000</f>
+        <f t="shared" si="121"/>
         <v>30654298.782348629</v>
       </c>
       <c r="G1301" s="8">
-        <f t="shared" ref="G1301:G1339" si="122">F1301/F1300-1</f>
+        <f t="shared" ref="G1301:G1339" si="124">F1301/F1300-1</f>
         <v>-7.8633268801812095E-3</v>
       </c>
       <c r="H1301" s="7">
-        <f>D1301+F1301</f>
+        <f t="shared" si="122"/>
         <v>82471017.837524399</v>
       </c>
       <c r="I1301" s="8">
-        <f t="shared" ref="I1301:I1339" si="123">H1301/H1300-1</f>
+        <f t="shared" ref="I1301:I1339" si="125">H1301/H1300-1</f>
         <v>-7.5734687573201231E-3</v>
       </c>
     </row>
@@ -46170,23 +46165,23 @@
         <v>51566880.798339844</v>
       </c>
       <c r="E1302" s="8">
+        <f t="shared" si="123"/>
+        <v>-4.8215761513170641E-3</v>
+      </c>
+      <c r="F1302" s="6">
         <f t="shared" si="121"/>
-        <v>-4.8215761513170641E-3</v>
-      </c>
-      <c r="F1302" s="6">
-        <f>C1302*1500000</f>
         <v>30567915.916442867</v>
       </c>
       <c r="G1302" s="8">
+        <f t="shared" si="124"/>
+        <v>-2.8179690724324802E-3</v>
+      </c>
+      <c r="H1302" s="7">
         <f t="shared" si="122"/>
-        <v>-2.8179690724324802E-3</v>
-      </c>
-      <c r="H1302" s="7">
-        <f>D1302+F1302</f>
         <v>82134796.714782715</v>
       </c>
       <c r="I1302" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-4.0768397378588839E-3</v>
       </c>
     </row>
@@ -46205,23 +46200,23 @@
         <v>51422158.813476555</v>
       </c>
       <c r="E1303" s="8">
+        <f t="shared" si="123"/>
+        <v>-2.8064909613060296E-3</v>
+      </c>
+      <c r="F1303" s="6">
         <f t="shared" si="121"/>
-        <v>-2.8064909613060296E-3</v>
-      </c>
-      <c r="F1303" s="6">
-        <f>C1303*1500000</f>
         <v>30610350.608825684</v>
       </c>
       <c r="G1303" s="8">
+        <f t="shared" si="124"/>
+        <v>1.3882101906721456E-3</v>
+      </c>
+      <c r="H1303" s="7">
         <f t="shared" si="122"/>
-        <v>1.3882101906721456E-3</v>
-      </c>
-      <c r="H1303" s="7">
-        <f>D1303+F1303</f>
         <v>82032509.422302246</v>
       </c>
       <c r="I1303" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-1.2453588073720878E-3</v>
       </c>
     </row>
@@ -46240,23 +46235,23 @@
         <v>51236398.31542968</v>
       </c>
       <c r="E1304" s="8">
+        <f t="shared" si="123"/>
+        <v>-3.6124601209506224E-3</v>
+      </c>
+      <c r="F1304" s="6">
         <f t="shared" si="121"/>
-        <v>-3.6124601209506224E-3</v>
-      </c>
-      <c r="F1304" s="6">
-        <f>C1304*1500000</f>
         <v>30455849.647521973</v>
       </c>
       <c r="G1304" s="8">
+        <f t="shared" si="124"/>
+        <v>-5.0473437327818171E-3</v>
+      </c>
+      <c r="H1304" s="7">
         <f t="shared" si="122"/>
-        <v>-5.0473437327818171E-3</v>
-      </c>
-      <c r="H1304" s="7">
-        <f>D1304+F1304</f>
         <v>81692247.96295166</v>
       </c>
       <c r="I1304" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-4.1478855364392997E-3</v>
       </c>
     </row>
@@ -46275,23 +46270,23 @@
         <v>51236398.31542968</v>
       </c>
       <c r="E1305" s="8">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="F1305" s="6">
         <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-      <c r="F1305" s="6">
-        <f>C1305*1500000</f>
         <v>30462959.289550785</v>
       </c>
       <c r="G1305" s="8">
+        <f t="shared" si="124"/>
+        <v>2.3344093535704324E-4</v>
+      </c>
+      <c r="H1305" s="7">
         <f t="shared" si="122"/>
-        <v>2.3344093535704324E-4</v>
-      </c>
-      <c r="H1305" s="7">
-        <f>D1305+F1305</f>
         <v>81699357.604980469</v>
       </c>
       <c r="I1305" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>8.7029579991959594E-5</v>
       </c>
     </row>
@@ -46310,23 +46305,23 @@
         <v>51317761.230468743</v>
       </c>
       <c r="E1306" s="8">
+        <f t="shared" si="123"/>
+        <v>1.5879905245907988E-3</v>
+      </c>
+      <c r="F1306" s="6">
         <f t="shared" si="121"/>
-        <v>1.5879905245907988E-3</v>
-      </c>
-      <c r="F1306" s="6">
-        <f>C1306*1500000</f>
         <v>30287698.745727539</v>
       </c>
       <c r="G1306" s="8">
+        <f t="shared" si="124"/>
+        <v>-5.7532343511801365E-3</v>
+      </c>
+      <c r="H1306" s="7">
         <f t="shared" si="122"/>
-        <v>-5.7532343511801365E-3</v>
-      </c>
-      <c r="H1306" s="7">
-        <f>D1306+F1306</f>
         <v>81605459.976196289</v>
       </c>
       <c r="I1306" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-1.149306818765683E-3</v>
       </c>
     </row>
@@ -46345,23 +46340,23 @@
         <v>51142318.725585938</v>
       </c>
       <c r="E1307" s="8">
+        <f t="shared" si="123"/>
+        <v>-3.4187482204238728E-3</v>
+      </c>
+      <c r="F1307" s="6">
         <f t="shared" si="121"/>
-        <v>-3.4187482204238728E-3</v>
-      </c>
-      <c r="F1307" s="6">
-        <f>C1307*1500000</f>
         <v>30256350.517272945</v>
       </c>
       <c r="G1307" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.0350151960295539E-3</v>
+      </c>
+      <c r="H1307" s="7">
         <f t="shared" si="122"/>
-        <v>-1.0350151960295539E-3</v>
-      </c>
-      <c r="H1307" s="7">
-        <f>D1307+F1307</f>
         <v>81398669.242858887</v>
       </c>
       <c r="I1307" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-2.534030607727944E-3</v>
       </c>
     </row>
@@ -46380,23 +46375,23 @@
         <v>51284880.065917969</v>
       </c>
       <c r="E1308" s="8">
+        <f t="shared" si="123"/>
+        <v>2.787541587564224E-3</v>
+      </c>
+      <c r="F1308" s="6">
         <f t="shared" si="121"/>
-        <v>2.787541587564224E-3</v>
-      </c>
-      <c r="F1308" s="6">
-        <f>C1308*1500000</f>
         <v>30368848.800659176</v>
       </c>
       <c r="G1308" s="8">
+        <f t="shared" si="124"/>
+        <v>3.7181709447082767E-3</v>
+      </c>
+      <c r="H1308" s="7">
         <f t="shared" si="122"/>
-        <v>3.7181709447082767E-3</v>
-      </c>
-      <c r="H1308" s="7">
-        <f>D1308+F1308</f>
         <v>81653728.866577148</v>
       </c>
       <c r="I1308" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>3.1334618377760748E-3</v>
       </c>
     </row>
@@ -46415,23 +46410,23 @@
         <v>50955120.849609382</v>
       </c>
       <c r="E1309" s="8">
+        <f t="shared" si="123"/>
+        <v>-6.429950033708498E-3</v>
+      </c>
+      <c r="F1309" s="6">
         <f t="shared" si="121"/>
-        <v>-6.429950033708498E-3</v>
-      </c>
-      <c r="F1309" s="6">
-        <f>C1309*1500000</f>
         <v>30241141.319274902</v>
       </c>
       <c r="G1309" s="8">
+        <f t="shared" si="124"/>
+        <v>-4.2052131189609376E-3</v>
+      </c>
+      <c r="H1309" s="7">
         <f t="shared" si="122"/>
-        <v>-4.2052131189609376E-3</v>
-      </c>
-      <c r="H1309" s="7">
-        <f>D1309+F1309</f>
         <v>81196262.168884277</v>
       </c>
       <c r="I1309" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-5.6025205957265234E-3</v>
       </c>
     </row>
@@ -46450,23 +46445,23 @@
         <v>50742237.854003906</v>
       </c>
       <c r="E1310" s="8">
+        <f t="shared" si="123"/>
+        <v>-4.1778528253084701E-3</v>
+      </c>
+      <c r="F1310" s="6">
         <f t="shared" si="121"/>
-        <v>-4.1778528253084701E-3</v>
-      </c>
-      <c r="F1310" s="6">
-        <f>C1310*1500000</f>
         <v>30171300.888061527</v>
       </c>
       <c r="G1310" s="8">
+        <f t="shared" si="124"/>
+        <v>-2.3094509058380064E-3</v>
+      </c>
+      <c r="H1310" s="7">
         <f t="shared" si="122"/>
-        <v>-2.3094509058380064E-3</v>
-      </c>
-      <c r="H1310" s="7">
-        <f>D1310+F1310</f>
         <v>80913538.74206543</v>
       </c>
       <c r="I1310" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-3.481975884934152E-3</v>
       </c>
     </row>
@@ -46485,23 +46480,23 @@
         <v>50774157.714843743</v>
       </c>
       <c r="E1311" s="8">
+        <f t="shared" si="123"/>
+        <v>6.2905898891729706E-4</v>
+      </c>
+      <c r="F1311" s="6">
         <f t="shared" si="121"/>
-        <v>6.2905898891729706E-4</v>
-      </c>
-      <c r="F1311" s="6">
-        <f>C1311*1500000</f>
         <v>30286648.75030518</v>
       </c>
       <c r="G1311" s="8">
+        <f t="shared" si="124"/>
+        <v>3.823098734509367E-3</v>
+      </c>
+      <c r="H1311" s="7">
         <f t="shared" si="122"/>
-        <v>3.823098734509367E-3</v>
-      </c>
-      <c r="H1311" s="7">
-        <f>D1311+F1311</f>
         <v>81060806.465148926</v>
       </c>
       <c r="I1311" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.8200628148641318E-3</v>
       </c>
     </row>
@@ -46520,23 +46515,23 @@
         <v>50710798.645019524</v>
       </c>
       <c r="E1312" s="8">
+        <f t="shared" si="123"/>
+        <v>-1.2478605786048202E-3</v>
+      </c>
+      <c r="F1312" s="6">
         <f t="shared" si="121"/>
-        <v>-1.2478605786048202E-3</v>
-      </c>
-      <c r="F1312" s="6">
-        <f>C1312*1500000</f>
         <v>30158128.738403324</v>
       </c>
       <c r="G1312" s="8">
+        <f t="shared" si="124"/>
+        <v>-4.2434543670191172E-3</v>
+      </c>
+      <c r="H1312" s="7">
         <f t="shared" si="122"/>
-        <v>-4.2434543670191172E-3</v>
-      </c>
-      <c r="H1312" s="7">
-        <f>D1312+F1312</f>
         <v>80868927.383422852</v>
       </c>
       <c r="I1312" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-2.3671005766340292E-3</v>
       </c>
     </row>
@@ -46555,23 +46550,23 @@
         <v>50816400.146484382</v>
       </c>
       <c r="E1313" s="8">
+        <f t="shared" si="123"/>
+        <v>2.0824263132608323E-3</v>
+      </c>
+      <c r="F1313" s="6">
         <f t="shared" si="121"/>
-        <v>2.0824263132608323E-3</v>
-      </c>
-      <c r="F1313" s="6">
-        <f>C1313*1500000</f>
         <v>30200729.370117184</v>
       </c>
       <c r="G1313" s="8">
+        <f t="shared" si="124"/>
+        <v>1.4125754314329164E-3</v>
+      </c>
+      <c r="H1313" s="7">
         <f t="shared" si="122"/>
-        <v>1.4125754314329164E-3</v>
-      </c>
-      <c r="H1313" s="7">
-        <f>D1313+F1313</f>
         <v>81017129.516601562</v>
       </c>
       <c r="I1313" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.8326214774191385E-3</v>
       </c>
     </row>
@@ -46590,23 +46585,23 @@
         <v>50809918.212890618</v>
       </c>
       <c r="E1314" s="8">
+        <f t="shared" si="123"/>
+        <v>-1.2755593814361976E-4</v>
+      </c>
+      <c r="F1314" s="6">
         <f t="shared" si="121"/>
-        <v>-1.2755593814361976E-4</v>
-      </c>
-      <c r="F1314" s="6">
-        <f>C1314*1500000</f>
         <v>30260624.885559078</v>
       </c>
       <c r="G1314" s="8">
+        <f t="shared" si="124"/>
+        <v>1.9832473152505692E-3</v>
+      </c>
+      <c r="H1314" s="7">
         <f t="shared" si="122"/>
-        <v>1.9832473152505692E-3</v>
-      </c>
-      <c r="H1314" s="7">
-        <f>D1314+F1314</f>
         <v>81070543.098449692</v>
       </c>
       <c r="I1314" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6.5928751323118817E-4</v>
       </c>
     </row>
@@ -46625,23 +46620,23 @@
         <v>50634960.9375</v>
       </c>
       <c r="E1315" s="8">
+        <f t="shared" si="123"/>
+        <v>-3.443368569450489E-3</v>
+      </c>
+      <c r="F1315" s="6">
         <f t="shared" si="121"/>
-        <v>-3.443368569450489E-3</v>
-      </c>
-      <c r="F1315" s="6">
-        <f>C1315*1500000</f>
         <v>30562050.819396973</v>
       </c>
       <c r="G1315" s="8">
+        <f t="shared" si="124"/>
+        <v>9.9609950216772436E-3</v>
+      </c>
+      <c r="H1315" s="7">
         <f t="shared" si="122"/>
-        <v>9.9609950216772436E-3</v>
-      </c>
-      <c r="H1315" s="7">
-        <f>D1315+F1315</f>
         <v>81197011.756896973</v>
       </c>
       <c r="I1315" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.5599828694092821E-3</v>
       </c>
     </row>
@@ -46660,23 +46655,23 @@
         <v>50603279.113769524</v>
       </c>
       <c r="E1316" s="8">
+        <f t="shared" si="123"/>
+        <v>-6.2569069164641888E-4</v>
+      </c>
+      <c r="F1316" s="6">
         <f t="shared" si="121"/>
-        <v>-6.2569069164641888E-4</v>
-      </c>
-      <c r="F1316" s="6">
-        <f>C1316*1500000</f>
         <v>30500999.45068359</v>
       </c>
       <c r="G1316" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.9976201556027862E-3</v>
+      </c>
+      <c r="H1316" s="7">
         <f t="shared" si="122"/>
-        <v>-1.9976201556027862E-3</v>
-      </c>
-      <c r="H1316" s="7">
-        <f>D1316+F1316</f>
         <v>81104278.56445311</v>
       </c>
       <c r="I1316" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-1.1420764192837662E-3</v>
       </c>
     </row>
@@ -46695,23 +46690,23 @@
         <v>50227922.058105476</v>
       </c>
       <c r="E1317" s="8">
+        <f t="shared" si="123"/>
+        <v>-7.4176429321931581E-3</v>
+      </c>
+      <c r="F1317" s="6">
         <f t="shared" si="121"/>
-        <v>-7.4176429321931581E-3</v>
-      </c>
-      <c r="F1317" s="6">
-        <f>C1317*1500000</f>
         <v>30095146.179199215</v>
       </c>
       <c r="G1317" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.3306228608691684E-2</v>
+      </c>
+      <c r="H1317" s="7">
         <f t="shared" si="122"/>
-        <v>-1.3306228608691684E-2</v>
-      </c>
-      <c r="H1317" s="7">
-        <f>D1317+F1317</f>
         <v>80323068.237304688</v>
       </c>
       <c r="I1317" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-9.6321715817692111E-3</v>
       </c>
     </row>
@@ -46730,23 +46725,23 @@
         <v>50390638.732910156</v>
       </c>
       <c r="E1318" s="8">
+        <f t="shared" si="123"/>
+        <v>3.2395661245241403E-3</v>
+      </c>
+      <c r="F1318" s="6">
         <f t="shared" si="121"/>
-        <v>3.2395661245241403E-3</v>
-      </c>
-      <c r="F1318" s="6">
-        <f>C1318*1500000</f>
         <v>30253950.119018551</v>
       </c>
       <c r="G1318" s="8">
+        <f t="shared" si="124"/>
+        <v>5.2767293062392362E-3</v>
+      </c>
+      <c r="H1318" s="7">
         <f t="shared" si="122"/>
-        <v>5.2767293062392362E-3</v>
-      </c>
-      <c r="H1318" s="7">
-        <f>D1318+F1318</f>
         <v>80644588.851928711</v>
       </c>
       <c r="I1318" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>4.002842790742589E-3</v>
       </c>
     </row>
@@ -46765,23 +46760,23 @@
         <v>50066162.109375</v>
       </c>
       <c r="E1319" s="8">
+        <f t="shared" si="123"/>
+        <v>-6.4392242625660456E-3</v>
+      </c>
+      <c r="F1319" s="6">
         <f t="shared" si="121"/>
-        <v>-6.4392242625660456E-3</v>
-      </c>
-      <c r="F1319" s="6">
-        <f>C1319*1500000</f>
         <v>30230698.585510258</v>
       </c>
       <c r="G1319" s="8">
+        <f t="shared" si="124"/>
+        <v>-7.6854537727544248E-4</v>
+      </c>
+      <c r="H1319" s="7">
         <f t="shared" si="122"/>
-        <v>-7.6854537727544248E-4</v>
-      </c>
-      <c r="H1319" s="7">
-        <f>D1319+F1319</f>
         <v>80296860.694885254</v>
       </c>
       <c r="I1319" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-4.3118597539373305E-3</v>
       </c>
     </row>
@@ -46800,23 +46795,23 @@
         <v>50291423.034667969</v>
       </c>
       <c r="E1320" s="8">
+        <f t="shared" si="123"/>
+        <v>4.4992648887458575E-3</v>
+      </c>
+      <c r="F1320" s="6">
         <f t="shared" si="121"/>
-        <v>4.4992648887458575E-3</v>
-      </c>
-      <c r="F1320" s="6">
-        <f>C1320*1500000</f>
         <v>30234958.648681637</v>
       </c>
       <c r="G1320" s="8">
+        <f t="shared" si="124"/>
+        <v>1.4091844948049825E-4</v>
+      </c>
+      <c r="H1320" s="7">
         <f t="shared" si="122"/>
-        <v>1.4091844948049825E-4</v>
-      </c>
-      <c r="H1320" s="7">
-        <f>D1320+F1320</f>
         <v>80526381.683349609</v>
       </c>
       <c r="I1320" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>2.8584055027567334E-3</v>
       </c>
     </row>
@@ -46835,23 +46830,23 @@
         <v>50558638.000488289</v>
       </c>
       <c r="E1321" s="8">
+        <f t="shared" si="123"/>
+        <v>5.3133307768229443E-3</v>
+      </c>
+      <c r="F1321" s="6">
         <f t="shared" si="121"/>
-        <v>5.3133307768229443E-3</v>
-      </c>
-      <c r="F1321" s="6">
-        <f>C1321*1500000</f>
         <v>30307199.478149414</v>
       </c>
       <c r="G1321" s="8">
+        <f t="shared" si="124"/>
+        <v>2.3893146442561797E-3</v>
+      </c>
+      <c r="H1321" s="7">
         <f t="shared" si="122"/>
-        <v>2.3893146442561797E-3</v>
-      </c>
-      <c r="H1321" s="7">
-        <f>D1321+F1321</f>
         <v>80865837.478637695</v>
       </c>
       <c r="I1321" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>4.2154606750233192E-3</v>
       </c>
     </row>
@@ -46870,23 +46865,23 @@
         <v>50841119.384765618</v>
       </c>
       <c r="E1322" s="8">
+        <f t="shared" si="123"/>
+        <v>5.5872032050112708E-3</v>
+      </c>
+      <c r="F1322" s="6">
         <f t="shared" si="121"/>
-        <v>5.5872032050112708E-3</v>
-      </c>
-      <c r="F1322" s="6">
-        <f>C1322*1500000</f>
         <v>30469754.21905518</v>
       </c>
       <c r="G1322" s="8">
+        <f t="shared" si="124"/>
+        <v>5.3635685152289003E-3</v>
+      </c>
+      <c r="H1322" s="7">
         <f t="shared" si="122"/>
-        <v>5.3635685152289003E-3</v>
-      </c>
-      <c r="H1322" s="7">
-        <f>D1322+F1322</f>
         <v>81310873.603820801</v>
       </c>
       <c r="I1322" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>5.5033885638131608E-3</v>
       </c>
     </row>
@@ -46905,23 +46900,23 @@
         <v>51547920.227050774</v>
       </c>
       <c r="E1323" s="8">
+        <f t="shared" si="123"/>
+        <v>1.3902149497065253E-2</v>
+      </c>
+      <c r="F1323" s="6">
         <f t="shared" si="121"/>
-        <v>1.3902149497065253E-2</v>
-      </c>
-      <c r="F1323" s="6">
-        <f>C1323*1500000</f>
         <v>30948300.361633305</v>
       </c>
       <c r="G1323" s="8">
+        <f t="shared" si="124"/>
+        <v>1.5705612166666327E-2</v>
+      </c>
+      <c r="H1323" s="7">
         <f t="shared" si="122"/>
-        <v>1.5705612166666327E-2</v>
-      </c>
-      <c r="H1323" s="7">
-        <f>D1323+F1323</f>
         <v>82496220.588684082</v>
       </c>
       <c r="I1323" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.457796395890143E-2</v>
       </c>
     </row>
@@ -46940,23 +46935,23 @@
         <v>51746401.977539062</v>
       </c>
       <c r="E1324" s="8">
+        <f t="shared" si="123"/>
+        <v>3.850431784910846E-3</v>
+      </c>
+      <c r="F1324" s="6">
         <f t="shared" si="121"/>
-        <v>3.850431784910846E-3</v>
-      </c>
-      <c r="F1324" s="6">
-        <f>C1324*1500000</f>
         <v>31245360.374450684</v>
       </c>
       <c r="G1324" s="8">
+        <f t="shared" si="124"/>
+        <v>9.5985889159084792E-3</v>
+      </c>
+      <c r="H1324" s="7">
         <f t="shared" si="122"/>
-        <v>9.5985889159084792E-3</v>
-      </c>
-      <c r="H1324" s="7">
-        <f>D1324+F1324</f>
         <v>82991762.351989746</v>
       </c>
       <c r="I1324" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6.0068420076644369E-3</v>
       </c>
     </row>
@@ -46975,23 +46970,23 @@
         <v>50767437.744140618</v>
       </c>
       <c r="E1325" s="8">
+        <f t="shared" si="123"/>
+        <v>-1.8918498600605571E-2</v>
+      </c>
+      <c r="F1325" s="6">
         <f t="shared" si="121"/>
-        <v>-1.8918498600605571E-2</v>
-      </c>
-      <c r="F1325" s="6">
-        <f>C1325*1500000</f>
         <v>30889348.983764652</v>
       </c>
       <c r="G1325" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.1394056154882537E-2</v>
+      </c>
+      <c r="H1325" s="7">
         <f t="shared" si="122"/>
-        <v>-1.1394056154882537E-2</v>
-      </c>
-      <c r="H1325" s="7">
-        <f>D1325+F1325</f>
         <v>81656786.727905273</v>
       </c>
       <c r="I1325" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-1.6085640143686741E-2</v>
       </c>
     </row>
@@ -47010,23 +47005,23 @@
         <v>50995198.059082031</v>
       </c>
       <c r="E1326" s="8">
+        <f t="shared" si="123"/>
+        <v>4.4863464665931829E-3</v>
+      </c>
+      <c r="F1326" s="6">
         <f t="shared" si="121"/>
-        <v>4.4863464665931829E-3</v>
-      </c>
-      <c r="F1326" s="6">
-        <f>C1326*1500000</f>
         <v>30930224.41864014</v>
       </c>
       <c r="G1326" s="8">
+        <f t="shared" si="124"/>
+        <v>1.3232857350593541E-3</v>
+      </c>
+      <c r="H1326" s="7">
         <f t="shared" si="122"/>
-        <v>1.3232857350593541E-3</v>
-      </c>
-      <c r="H1326" s="7">
-        <f>D1326+F1326</f>
         <v>81925422.477722168</v>
       </c>
       <c r="I1326" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>3.2898153427471932E-3</v>
       </c>
     </row>
@@ -47045,23 +47040,23 @@
         <v>50661840.820312507</v>
       </c>
       <c r="E1327" s="8">
+        <f t="shared" si="123"/>
+        <v>-6.5370319453079695E-3</v>
+      </c>
+      <c r="F1327" s="6">
         <f t="shared" si="121"/>
-        <v>-6.5370319453079695E-3</v>
-      </c>
-      <c r="F1327" s="6">
-        <f>C1327*1500000</f>
         <v>30481201.171875</v>
       </c>
       <c r="G1327" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.4517296760851672E-2</v>
+      </c>
+      <c r="H1327" s="7">
         <f t="shared" si="122"/>
-        <v>-1.4517296760851672E-2</v>
-      </c>
-      <c r="H1327" s="7">
-        <f>D1327+F1327</f>
         <v>81143041.9921875</v>
       </c>
       <c r="I1327" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-9.5499109052189501E-3</v>
       </c>
     </row>
@@ -47080,23 +47075,23 @@
         <v>50460479.736328125</v>
       </c>
       <c r="E1328" s="8">
+        <f t="shared" si="123"/>
+        <v>-3.9746104903406465E-3</v>
+      </c>
+      <c r="F1328" s="6">
         <f t="shared" si="121"/>
-        <v>-3.9746104903406465E-3</v>
-      </c>
-      <c r="F1328" s="6">
-        <f>C1328*1500000</f>
         <v>30491008.758544922</v>
       </c>
       <c r="G1328" s="8">
+        <f t="shared" si="124"/>
+        <v>3.2175853617522066E-4</v>
+      </c>
+      <c r="H1328" s="7">
         <f t="shared" si="122"/>
-        <v>3.2175853617522066E-4</v>
-      </c>
-      <c r="H1328" s="7">
-        <f>D1328+F1328</f>
         <v>80951488.494873047</v>
       </c>
       <c r="I1328" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-2.3606891313354694E-3</v>
       </c>
     </row>
@@ -47115,23 +47110,23 @@
         <v>50524319.458007805</v>
       </c>
       <c r="E1329" s="8">
+        <f t="shared" si="123"/>
+        <v>1.2651429794814373E-3</v>
+      </c>
+      <c r="F1329" s="6">
         <f t="shared" si="121"/>
-        <v>1.2651429794814373E-3</v>
-      </c>
-      <c r="F1329" s="6">
-        <f>C1329*1500000</f>
         <v>30616438.865661617</v>
       </c>
       <c r="G1329" s="8">
+        <f t="shared" si="124"/>
+        <v>4.1136752184869341E-3</v>
+      </c>
+      <c r="H1329" s="7">
         <f t="shared" si="122"/>
-        <v>4.1136752184869341E-3</v>
-      </c>
-      <c r="H1329" s="7">
-        <f>D1329+F1329</f>
         <v>81140758.323669419</v>
       </c>
       <c r="I1329" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>2.3380648375397328E-3</v>
       </c>
     </row>
@@ -47150,23 +47145,23 @@
         <v>50673120.117187493</v>
       </c>
       <c r="E1330" s="8">
+        <f t="shared" si="123"/>
+        <v>2.9451294104685388E-3</v>
+      </c>
+      <c r="F1330" s="6">
         <f t="shared" si="121"/>
-        <v>2.9451294104685388E-3</v>
-      </c>
-      <c r="F1330" s="6">
-        <f>C1330*1500000</f>
         <v>30759538.650512699</v>
       </c>
       <c r="G1330" s="8">
+        <f t="shared" si="124"/>
+        <v>4.6739526265275888E-3</v>
+      </c>
+      <c r="H1330" s="7">
         <f t="shared" si="122"/>
-        <v>4.6739526265275888E-3</v>
-      </c>
-      <c r="H1330" s="7">
-        <f>D1330+F1330</f>
         <v>81432658.767700195</v>
       </c>
       <c r="I1330" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>3.5974576780066769E-3</v>
       </c>
     </row>
@@ -47185,23 +47180,23 @@
         <v>50894641.113281257</v>
       </c>
       <c r="E1331" s="8">
+        <f t="shared" si="123"/>
+        <v>4.3715681130640505E-3</v>
+      </c>
+      <c r="F1331" s="6">
         <f t="shared" si="121"/>
-        <v>4.3715681130640505E-3</v>
-      </c>
-      <c r="F1331" s="6">
-        <f>C1331*1500000</f>
         <v>31052684.783935547</v>
       </c>
       <c r="G1331" s="8">
+        <f t="shared" si="124"/>
+        <v>9.5302513068726835E-3</v>
+      </c>
+      <c r="H1331" s="7">
         <f t="shared" si="122"/>
-        <v>9.5302513068726835E-3</v>
-      </c>
-      <c r="H1331" s="7">
-        <f>D1331+F1331</f>
         <v>81947325.897216797</v>
       </c>
       <c r="I1331" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>6.3201562776522557E-3</v>
       </c>
     </row>
@@ -47220,23 +47215,23 @@
         <v>50773439.025878906</v>
       </c>
       <c r="E1332" s="8">
+        <f t="shared" si="123"/>
+        <v>-2.38143122244594E-3</v>
+      </c>
+      <c r="F1332" s="6">
         <f t="shared" si="121"/>
-        <v>-2.38143122244594E-3</v>
-      </c>
-      <c r="F1332" s="6">
-        <f>C1332*1500000</f>
         <v>30915690.422058105</v>
       </c>
       <c r="G1332" s="8">
+        <f t="shared" si="124"/>
+        <v>-4.4116752812405347E-3</v>
+      </c>
+      <c r="H1332" s="7">
         <f t="shared" si="122"/>
-        <v>-4.4116752812405347E-3</v>
-      </c>
-      <c r="H1332" s="7">
-        <f>D1332+F1332</f>
         <v>81689129.447937012</v>
       </c>
       <c r="I1332" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-3.1507611316521356E-3</v>
       </c>
     </row>
@@ -47255,23 +47250,23 @@
         <v>50737440.490722649</v>
       </c>
       <c r="E1333" s="8">
+        <f t="shared" si="123"/>
+        <v>-7.0900328689393888E-4</v>
+      </c>
+      <c r="F1333" s="6">
         <f t="shared" si="121"/>
-        <v>-7.0900328689393888E-4</v>
-      </c>
-      <c r="F1333" s="6">
-        <f>C1333*1500000</f>
         <v>30755999.565124515</v>
       </c>
       <c r="G1333" s="8">
+        <f t="shared" si="124"/>
+        <v>-5.1653660246142596E-3</v>
+      </c>
+      <c r="H1333" s="7">
         <f t="shared" si="122"/>
-        <v>-5.1653660246142596E-3</v>
-      </c>
-      <c r="H1333" s="7">
-        <f>D1333+F1333</f>
         <v>81493440.055847168</v>
       </c>
       <c r="I1333" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-2.3955377344859752E-3</v>
       </c>
     </row>
@@ -47290,23 +47285,23 @@
         <v>50538478.088378906</v>
       </c>
       <c r="E1334" s="8">
+        <f t="shared" si="123"/>
+        <v>-3.9214118887239691E-3</v>
+      </c>
+      <c r="F1334" s="6">
         <f t="shared" si="121"/>
-        <v>-3.9214118887239691E-3</v>
-      </c>
-      <c r="F1334" s="6">
-        <f>C1334*1500000</f>
         <v>30682966.232299801</v>
       </c>
       <c r="G1334" s="8">
+        <f t="shared" si="124"/>
+        <v>-2.3746044302696001E-3</v>
+      </c>
+      <c r="H1334" s="7">
         <f t="shared" si="122"/>
-        <v>-2.3746044302696001E-3</v>
-      </c>
-      <c r="H1334" s="7">
-        <f>D1334+F1334</f>
         <v>81221444.320678711</v>
       </c>
       <c r="I1334" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-3.3376396306507017E-3</v>
       </c>
     </row>
@@ -47325,23 +47320,23 @@
         <v>51504478.454589844</v>
       </c>
       <c r="E1335" s="8">
+        <f t="shared" si="123"/>
+        <v>1.911415623797863E-2</v>
+      </c>
+      <c r="F1335" s="6">
         <f t="shared" si="121"/>
-        <v>1.911415623797863E-2</v>
-      </c>
-      <c r="F1335" s="6">
-        <f>C1335*1500000</f>
         <v>31249094.009399414</v>
       </c>
       <c r="G1335" s="8">
+        <f t="shared" si="124"/>
+        <v>1.8450881600347246E-2</v>
+      </c>
+      <c r="H1335" s="7">
         <f t="shared" si="122"/>
-        <v>1.8450881600347246E-2</v>
-      </c>
-      <c r="H1335" s="7">
-        <f>D1335+F1335</f>
         <v>82753572.463989258</v>
       </c>
       <c r="I1335" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>1.8863591458204043E-2</v>
       </c>
     </row>
@@ -47360,23 +47355,23 @@
         <v>51272401.428222649</v>
       </c>
       <c r="E1336" s="8">
+        <f t="shared" si="123"/>
+        <v>-4.5059581871469412E-3</v>
+      </c>
+      <c r="F1336" s="6">
         <f t="shared" si="121"/>
-        <v>-4.5059581871469412E-3</v>
-      </c>
-      <c r="F1336" s="6">
-        <f>C1336*1500000</f>
         <v>31186935.424804684</v>
       </c>
       <c r="G1336" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.9891323753589152E-3</v>
+      </c>
+      <c r="H1336" s="7">
         <f t="shared" si="122"/>
-        <v>-1.9891323753589152E-3</v>
-      </c>
-      <c r="H1336" s="7">
-        <f>D1336+F1336</f>
         <v>82459336.853027329</v>
       </c>
       <c r="I1336" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-3.555563853028465E-3</v>
       </c>
     </row>
@@ -47395,23 +47390,23 @@
         <v>51259442.138671875</v>
       </c>
       <c r="E1337" s="8">
+        <f t="shared" si="123"/>
+        <v>-2.5275370744859416E-4</v>
+      </c>
+      <c r="F1337" s="6">
         <f t="shared" si="121"/>
-        <v>-2.5275370744859416E-4</v>
-      </c>
-      <c r="F1337" s="6">
-        <f>C1337*1500000</f>
         <v>30745860.09979248</v>
       </c>
       <c r="G1337" s="8">
+        <f t="shared" si="124"/>
+        <v>-1.4142951816336291E-2</v>
+      </c>
+      <c r="H1337" s="7">
         <f t="shared" si="122"/>
-        <v>-1.4142951816336291E-2</v>
-      </c>
-      <c r="H1337" s="7">
-        <f>D1337+F1337</f>
         <v>82005302.238464355</v>
       </c>
       <c r="I1337" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-5.5061637880041703E-3</v>
       </c>
     </row>
@@ -47430,23 +47425,23 @@
         <v>51595678.710937493</v>
       </c>
       <c r="E1338" s="8">
+        <f t="shared" si="123"/>
+        <v>6.5595051026110518E-3</v>
+      </c>
+      <c r="F1338" s="6">
         <f t="shared" si="121"/>
-        <v>6.5595051026110518E-3</v>
-      </c>
-      <c r="F1338" s="6">
-        <f>C1338*1500000</f>
         <v>30991799.354553223</v>
       </c>
       <c r="G1338" s="8">
+        <f t="shared" si="124"/>
+        <v>7.9991014713034492E-3</v>
+      </c>
+      <c r="H1338" s="7">
         <f t="shared" si="122"/>
-        <v>7.9991014713034492E-3</v>
-      </c>
-      <c r="H1338" s="7">
-        <f>D1338+F1338</f>
         <v>82587478.065490723</v>
       </c>
       <c r="I1338" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>7.099246160125805E-3</v>
       </c>
     </row>
@@ -47465,29 +47460,29 @@
         <v>51198239.135742195</v>
       </c>
       <c r="E1339" s="8">
+        <f t="shared" si="123"/>
+        <v>-7.7029624403612829E-3</v>
+      </c>
+      <c r="F1339" s="6">
         <f t="shared" si="121"/>
-        <v>-7.7029624403612829E-3</v>
-      </c>
-      <c r="F1339" s="6">
-        <f>C1339*1500000</f>
         <v>30730650.901794434</v>
       </c>
       <c r="G1339" s="8">
+        <f t="shared" si="124"/>
+        <v>-8.4263727243194531E-3</v>
+      </c>
+      <c r="H1339" s="7">
         <f t="shared" si="122"/>
-        <v>-8.4263727243194531E-3</v>
-      </c>
-      <c r="H1339" s="7">
-        <f>D1339+F1339</f>
         <v>81928890.037536621</v>
       </c>
       <c r="I1339" s="8">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>-7.9744295791651654E-3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/2.- FX_Risk_II.xlsx
+++ b/2.- FX_Risk_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luism/Desktop/6-ITESO/Administración de Riesgos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4BF5F-8F2F-6C45-BF51-2E6026E845D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868A496-BC5C-C448-9367-142491EB9591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="940" windowWidth="24960" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A15:N1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="G11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
